--- a/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
+++ b/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Template1" sheetId="1" r:id="rId1"/>
-    <sheet name="Template2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -361,26 +360,7 @@
   </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="39" width="2.25" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="74" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>
--- a/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
+++ b/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK11" activeCellId="1" sqref="AH6 AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
+++ b/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Visual Studio 2015\Projects\KATO\KATO\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Visual Studio 2015\Projects\KATO\KATO\bin\Release\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +40,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HGP明朝B"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,8 +71,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,17 +358,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK11" activeCellId="1" sqref="AH6 AK11"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="47" width="2.25" customWidth="1"/>
+    <col min="1" max="47" width="2.25" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="73" orientation="landscape" r:id="rId1"/>

--- a/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
+++ b/KATO/Template/M0620_HushoAtenaInsatsu_Naga3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Visual Studio 2015\Projects\KATO\KATO\bin\Release\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Visual Studio 2015\Projects\KATO\KATO\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,11 +71,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A7"/>
+  <dimension ref="F1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -370,9 +373,163 @@
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="6:29" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="6:29" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="6:29" x14ac:dyDescent="0.15">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="6:29" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="6:29" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="6:29" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="6:29" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
